--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Npr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H2">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="J2">
+        <v>0.6308162521878971</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>33.15441633333333</v>
+        <v>29.40701066666667</v>
       </c>
       <c r="N2">
-        <v>99.46324899999999</v>
+        <v>88.22103200000001</v>
       </c>
       <c r="O2">
-        <v>0.8275817462597602</v>
+        <v>0.8048351800855125</v>
       </c>
       <c r="P2">
-        <v>0.8275817462597601</v>
+        <v>0.8048351800855124</v>
       </c>
       <c r="Q2">
-        <v>6.237041955042999</v>
+        <v>5.567648934193778</v>
       </c>
       <c r="R2">
-        <v>56.13337759538699</v>
+        <v>50.10884040774401</v>
       </c>
       <c r="S2">
-        <v>0.8275817462597602</v>
+        <v>0.5077031119305142</v>
       </c>
       <c r="T2">
-        <v>0.8275817462597601</v>
+        <v>0.5077031119305141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H3">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>19.734109</v>
       </c>
       <c r="O3">
-        <v>0.1641972140594407</v>
+        <v>0.1800330920051143</v>
       </c>
       <c r="P3">
-        <v>0.1641972140594407</v>
+        <v>0.1800330920051142</v>
       </c>
       <c r="Q3">
-        <v>1.237466773063</v>
+        <v>1.245424004347556</v>
       </c>
       <c r="R3">
-        <v>11.137200957567</v>
+        <v>11.208816039128</v>
       </c>
       <c r="S3">
-        <v>0.1641972140594407</v>
+        <v>0.1135678003684651</v>
       </c>
       <c r="T3">
-        <v>0.1641972140594407</v>
+        <v>0.113567800368465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.188121</v>
+        <v>0.1893306666666667</v>
       </c>
       <c r="H4">
-        <v>0.5643629999999999</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6308162521878971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3293496666666667</v>
+        <v>0.552882</v>
       </c>
       <c r="N4">
-        <v>0.988049</v>
+        <v>1.658646</v>
       </c>
       <c r="O4">
-        <v>0.008221039680799186</v>
+        <v>0.0151317279093733</v>
       </c>
       <c r="P4">
-        <v>0.008221039680799184</v>
+        <v>0.01513172790937329</v>
       </c>
       <c r="Q4">
-        <v>0.06195758864299999</v>
+        <v>0.104677517648</v>
       </c>
       <c r="R4">
-        <v>0.5576182977869999</v>
+        <v>0.942097658832</v>
       </c>
       <c r="S4">
-        <v>0.008221039680799186</v>
+        <v>0.009545339888917866</v>
       </c>
       <c r="T4">
-        <v>0.008221039680799184</v>
+        <v>0.009545339888917865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.332416</v>
+      </c>
+      <c r="I5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J5">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>29.40701066666667</v>
+      </c>
+      <c r="N5">
+        <v>88.22103200000001</v>
+      </c>
+      <c r="O5">
+        <v>0.8048351800855125</v>
+      </c>
+      <c r="P5">
+        <v>0.8048351800855124</v>
+      </c>
+      <c r="Q5">
+        <v>3.258453619256889</v>
+      </c>
+      <c r="R5">
+        <v>29.326082573312</v>
+      </c>
+      <c r="S5">
+        <v>0.2971320681549983</v>
+      </c>
+      <c r="T5">
+        <v>0.2971320681549982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.332416</v>
+      </c>
+      <c r="I6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J6">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.578036333333333</v>
+      </c>
+      <c r="N6">
+        <v>19.734109</v>
+      </c>
+      <c r="O6">
+        <v>0.1800330920051143</v>
+      </c>
+      <c r="P6">
+        <v>0.1800330920051142</v>
+      </c>
+      <c r="Q6">
+        <v>0.7288815085937778</v>
+      </c>
+      <c r="R6">
+        <v>6.559933577344</v>
+      </c>
+      <c r="S6">
+        <v>0.06646529163664924</v>
+      </c>
+      <c r="T6">
+        <v>0.06646529163664922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1108053333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.332416</v>
+      </c>
+      <c r="I7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="J7">
+        <v>0.3691837478121029</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.552882</v>
+      </c>
+      <c r="N7">
+        <v>1.658646</v>
+      </c>
+      <c r="O7">
+        <v>0.0151317279093733</v>
+      </c>
+      <c r="P7">
+        <v>0.01513172790937329</v>
+      </c>
+      <c r="Q7">
+        <v>0.06126227430399999</v>
+      </c>
+      <c r="R7">
+        <v>0.551360468736</v>
+      </c>
+      <c r="S7">
+        <v>0.005586388020455431</v>
+      </c>
+      <c r="T7">
+        <v>0.005586388020455429</v>
       </c>
     </row>
   </sheetData>
